--- a/Libary/E848_P.xlsx
+++ b/Libary/E848_P.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AI-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>перетворювача</t>
   </si>
@@ -132,9 +132,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>X/19-8A</t>
-  </si>
-  <si>
     <t>Ф4102/1-1M</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Висновок:</t>
   </si>
   <si>
-    <t xml:space="preserve"> придатний  </t>
-  </si>
-  <si>
     <t>Підпис</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Границі основної приведеної похибки, ± %</t>
   </si>
   <si>
-    <t>E848</t>
-  </si>
-  <si>
     <t>630 ÷ 800 мм. рт. cт</t>
   </si>
   <si>
@@ -189,7 +180,7 @@
     <t>30 ÷ 80%</t>
   </si>
   <si>
-    <t>/8 ЭС</t>
+    <t>E848/8</t>
   </si>
 </sst>
 </file>
@@ -524,12 +515,171 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,19 +695,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,154 +704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,44 +989,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,42 +1056,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="49" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="72"/>
+      <c r="P3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="35"/>
+      <c r="R3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="78"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,39 +1121,39 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="22">
         <v>0.5</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="22">
         <v>100</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
       <c r="U5" s="23">
         <v>3</v>
       </c>
@@ -1170,78 +1162,78 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="N7" s="43" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="N7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="N8" s="39" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="N8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39" t="s">
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1250,28 +1242,28 @@
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="N9" s="28" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="N9" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="44">
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="58">
         <v>556621</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="45"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="59"/>
     </row>
     <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1280,28 +1272,28 @@
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="N10" s="31" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="N10" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="59"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -1310,42 +1302,42 @@
       <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="59"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="59"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
@@ -1357,13 +1349,13 @@
       <c r="H13" s="66"/>
       <c r="I13" s="67"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="70"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
@@ -1373,112 +1365,112 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="72" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="39" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
     </row>
     <row r="17" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="39" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1502,114 +1494,114 @@
     </row>
     <row r="20" spans="1:22" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="59"/>
+      <c r="C20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="51"/>
       <c r="E20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61" t="s">
+      <c r="F20" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="58" t="s">
+      <c r="I20" s="54"/>
+      <c r="J20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="19" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="63"/>
+      <c r="N20" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="57"/>
     </row>
     <row r="21" spans="1:22" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40" t="s">
+      <c r="F21" s="88"/>
+      <c r="G21" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40" t="s">
+      <c r="H21" s="88"/>
+      <c r="I21" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40" t="s">
+      <c r="J21" s="88"/>
+      <c r="K21" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="83" t="s">
+      <c r="L21" s="88"/>
+      <c r="M21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="39"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" s="45"/>
     </row>
     <row r="22" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
     </row>
     <row r="23" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
@@ -1633,41 +1625,41 @@
       <c r="G23" s="24">
         <v>0</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="27">
         <v>28.867513459481287</v>
       </c>
-      <c r="I23" s="41" t="e">
+      <c r="I23" s="27" t="e">
         <f t="shared" ref="I23:I32" si="2">K23/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="27">
         <v>12.5470053837925</v>
       </c>
-      <c r="K23" s="41" t="e">
+      <c r="K23" s="27" t="e">
         <f t="shared" ref="K23:K32" si="3">SQRT(3)*B23*E23*(COS(G23*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="27">
         <v>35.641016151377499</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="79" t="e">
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31" t="e">
         <f t="shared" ref="Q23:Q32" si="4">(M23-(($M$20*K23)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="27">
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="80">
         <f>$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="V23" s="27"/>
+      <c r="V23" s="80"/>
     </row>
     <row r="24" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
@@ -1691,38 +1683,38 @@
       <c r="G24" s="24">
         <v>0</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="27">
         <v>46.188021535170058</v>
       </c>
-      <c r="I24" s="41" t="e">
+      <c r="I24" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="27">
         <v>13.5470053837925</v>
       </c>
-      <c r="K24" s="41" t="e">
+      <c r="K24" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="27">
         <v>36.641016151377499</v>
       </c>
-      <c r="M24" s="76" t="s">
+      <c r="M24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="79" t="e">
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
     </row>
     <row r="25" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
@@ -1746,38 +1738,38 @@
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="27">
         <v>57.735026918962575</v>
       </c>
-      <c r="I25" s="41" t="e">
+      <c r="I25" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="27">
         <v>14.5470053837925</v>
       </c>
-      <c r="K25" s="41" t="e">
+      <c r="K25" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="27">
         <v>37.641016151377499</v>
       </c>
-      <c r="M25" s="76" t="s">
+      <c r="M25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="79" t="e">
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
@@ -1801,38 +1793,38 @@
       <c r="G26" s="24">
         <v>0</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="27">
         <v>69.282032302755084</v>
       </c>
-      <c r="I26" s="41" t="e">
+      <c r="I26" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="27">
         <v>15.5470053837925</v>
       </c>
-      <c r="K26" s="41" t="e">
+      <c r="K26" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="27">
         <v>38.641016151377499</v>
       </c>
-      <c r="M26" s="76" t="s">
+      <c r="M26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="79" t="e">
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
     </row>
     <row r="27" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
@@ -1856,38 +1848,38 @@
       <c r="G27" s="24">
         <v>0</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="27">
         <v>0.57735026918962573</v>
       </c>
-      <c r="I27" s="41" t="e">
+      <c r="I27" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="27">
         <v>16.547005383792499</v>
       </c>
-      <c r="K27" s="41" t="e">
+      <c r="K27" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="27">
         <v>39.641016151377499</v>
       </c>
-      <c r="M27" s="76" t="s">
+      <c r="M27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="79" t="e">
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
@@ -1911,40 +1903,40 @@
       <c r="G28" s="24">
         <v>60</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="27">
         <v>28.867513459481287</v>
       </c>
-      <c r="I28" s="41" t="e">
+      <c r="I28" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="27">
         <v>18.547005383792499</v>
       </c>
-      <c r="K28" s="41" t="e">
+      <c r="K28" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="27">
         <v>41.641016151377499</v>
       </c>
-      <c r="M28" s="76" t="s">
+      <c r="M28" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="79" t="e">
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="27">
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="80">
         <v>1</v>
       </c>
-      <c r="V28" s="27"/>
+      <c r="V28" s="80"/>
     </row>
     <row r="29" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
@@ -1968,38 +1960,38 @@
       <c r="G29" s="24">
         <v>60</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="27">
         <v>69.282032302755084</v>
       </c>
-      <c r="I29" s="41" t="e">
+      <c r="I29" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="27">
         <v>19.547005383792499</v>
       </c>
-      <c r="K29" s="41" t="e">
+      <c r="K29" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="27">
         <v>42.641016151377499</v>
       </c>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79" t="e">
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
     </row>
     <row r="30" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
@@ -2020,41 +2012,41 @@
       <c r="F30" s="24">
         <v>10</v>
       </c>
-      <c r="G30" s="74">
+      <c r="G30" s="25">
         <v>60</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I30" s="41" t="e">
+      <c r="I30" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="27">
         <v>20.547005383792499</v>
       </c>
-      <c r="K30" s="41" t="e">
+      <c r="K30" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="27">
         <v>43.641016151377499</v>
       </c>
-      <c r="M30" s="76" t="s">
+      <c r="M30" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="79" t="e">
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
     </row>
     <row r="31" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
@@ -2075,41 +2067,41 @@
       <c r="F31" s="24">
         <v>11</v>
       </c>
-      <c r="G31" s="74">
+      <c r="G31" s="25">
         <v>60</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I31" s="41" t="e">
+      <c r="I31" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="27">
         <v>21.547005383792499</v>
       </c>
-      <c r="K31" s="41" t="e">
+      <c r="K31" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="27">
         <v>44.641016151377499</v>
       </c>
-      <c r="M31" s="76" t="s">
+      <c r="M31" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="79" t="e">
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
     </row>
     <row r="32" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
@@ -2130,41 +2122,41 @@
       <c r="F32" s="24">
         <v>12</v>
       </c>
-      <c r="G32" s="74">
+      <c r="G32" s="25">
         <v>60</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I32" s="41" t="e">
+      <c r="I32" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="41">
+      <c r="J32" s="27">
         <v>22.547005383792499</v>
       </c>
-      <c r="K32" s="41" t="e">
+      <c r="K32" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="27">
         <v>45.641016151377499</v>
       </c>
-      <c r="M32" s="76" t="s">
+      <c r="M32" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="79" t="e">
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="81"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
     </row>
     <row r="33" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
@@ -2185,43 +2177,43 @@
       <c r="F33" s="24">
         <v>14</v>
       </c>
-      <c r="G33" s="74">
+      <c r="G33" s="25">
         <v>300</v>
       </c>
-      <c r="H33" s="75">
+      <c r="H33" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I33" s="41" t="e">
+      <c r="I33" s="27" t="e">
         <f>K33/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="27">
         <v>24.5470053837923</v>
       </c>
-      <c r="K33" s="41" t="e">
+      <c r="K33" s="27" t="e">
         <f>SQRT(3)*B33*E33*(COS(G33*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="27">
         <v>47.641016151376903</v>
       </c>
-      <c r="M33" s="76" t="s">
+      <c r="M33" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="79" t="e">
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="31" t="e">
         <f>(M33-(($M$20*K33)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="81"/>
-      <c r="U33" s="27">
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="80">
         <v>1</v>
       </c>
-      <c r="V33" s="27"/>
+      <c r="V33" s="80"/>
     </row>
     <row r="34" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
@@ -2242,41 +2234,41 @@
       <c r="F34" s="24">
         <v>15</v>
       </c>
-      <c r="G34" s="74">
+      <c r="G34" s="25">
         <v>300</v>
       </c>
-      <c r="H34" s="75">
+      <c r="H34" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I34" s="41" t="e">
+      <c r="I34" s="27" t="e">
         <f t="shared" ref="I34:I37" si="7">K34/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="27">
         <v>25.5470053837923</v>
       </c>
-      <c r="K34" s="41" t="e">
+      <c r="K34" s="27" t="e">
         <f t="shared" ref="K34:K37" si="8">SQRT(3)*B34*E34*(COS(G34*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="27">
         <v>48.641016151376903</v>
       </c>
-      <c r="M34" s="76" t="s">
+      <c r="M34" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="79" t="e">
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31" t="e">
         <f t="shared" ref="Q34:Q37" si="9">(M34-(($M$20*K34)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="81"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
     </row>
     <row r="35" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
@@ -2297,41 +2289,41 @@
       <c r="F35" s="24">
         <v>16</v>
       </c>
-      <c r="G35" s="74">
+      <c r="G35" s="25">
         <v>300</v>
       </c>
-      <c r="H35" s="75">
+      <c r="H35" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I35" s="41" t="e">
+      <c r="I35" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="27">
         <v>26.5470053837923</v>
       </c>
-      <c r="K35" s="41" t="e">
+      <c r="K35" s="27" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="27">
         <v>49.641016151376903</v>
       </c>
-      <c r="M35" s="76" t="s">
+      <c r="M35" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="79" t="e">
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="31" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
     </row>
     <row r="36" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
@@ -2352,41 +2344,41 @@
       <c r="F36" s="24">
         <v>17</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G36" s="25">
         <v>300</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I36" s="41" t="e">
+      <c r="I36" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="27">
         <v>27.5470053837923</v>
       </c>
-      <c r="K36" s="41" t="e">
+      <c r="K36" s="27" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="27">
         <v>50.641016151376803</v>
       </c>
-      <c r="M36" s="76" t="s">
+      <c r="M36" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="79" t="e">
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="31" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R36" s="80"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
     </row>
     <row r="37" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
@@ -2407,41 +2399,41 @@
       <c r="F37" s="24">
         <v>18</v>
       </c>
-      <c r="G37" s="74">
+      <c r="G37" s="25">
         <v>300</v>
       </c>
-      <c r="H37" s="75">
+      <c r="H37" s="26">
         <v>28.867513459481291</v>
       </c>
-      <c r="I37" s="41" t="e">
+      <c r="I37" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="27">
         <v>28.5470053837923</v>
       </c>
-      <c r="K37" s="41" t="e">
+      <c r="K37" s="27" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="27">
         <v>51.641016151376803</v>
       </c>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="79" t="e">
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="31" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
     </row>
     <row r="38" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2469,38 +2461,38 @@
     <row r="61" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="73"/>
+      <c r="A63" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="73"/>
+      <c r="I63" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="36"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49" t="s">
+      <c r="Q63" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="U63" s="49"/>
-      <c r="V63" s="73"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="36"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2574,6 +2566,167 @@
     <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="185">
+    <mergeCell ref="U33:V37"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="U23:V27"/>
+    <mergeCell ref="U28:V32"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="M21:P22"/>
+    <mergeCell ref="Q21:T22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
@@ -2598,167 +2751,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="M21:P22"/>
-    <mergeCell ref="Q21:T22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="U23:V27"/>
-    <mergeCell ref="U28:V32"/>
-    <mergeCell ref="U33:V37"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Libary/E848_P.xlsx
+++ b/Libary/E848_P.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
@@ -512,18 +512,171 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,24 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,143 +704,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1002,32 +1002,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="75" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,42 +1056,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="71" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="48"/>
+      <c r="P3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="78"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="49"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1121,39 +1121,39 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="22">
         <v>0.5</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="22">
         <v>100</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
       <c r="U5" s="23">
         <v>3</v>
       </c>
@@ -1162,78 +1162,78 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="N7" s="74" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="N7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="N8" s="45" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="N8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45" t="s">
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1242,28 +1242,28 @@
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="N9" s="81" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="N9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="58">
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="40">
         <v>556621</v>
       </c>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="59"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="41"/>
     </row>
     <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1272,28 +1272,28 @@
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="N10" s="84" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="N10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="58" t="s">
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="41"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -1302,42 +1302,42 @@
       <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="60" t="s">
+      <c r="E11" s="51"/>
+      <c r="F11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="41"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="41"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
@@ -1349,13 +1349,13 @@
       <c r="H13" s="66"/>
       <c r="I13" s="67"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="44"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="70"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
@@ -1365,112 +1365,112 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="45" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
     </row>
     <row r="17" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="45" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1499,941 +1499,941 @@
       <c r="B20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="50" t="s">
+      <c r="I20" s="62"/>
+      <c r="J20" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="19" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="57"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="63"/>
     </row>
     <row r="21" spans="1:22" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88" t="s">
+      <c r="H21" s="37"/>
+      <c r="I21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88" t="s">
+      <c r="J21" s="37"/>
+      <c r="K21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="37" t="s">
+      <c r="L21" s="37"/>
+      <c r="M21" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="37" t="s">
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="88" t="s">
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="V21" s="45"/>
+      <c r="V21" s="36"/>
     </row>
     <row r="22" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
     </row>
     <row r="23" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>1</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="54">
         <f t="shared" ref="B23:B32" si="0">$M$5*A23</f>
         <v>100</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="17">
         <v>0.2</v>
       </c>
-      <c r="E23" s="24" t="e">
+      <c r="E23" s="54" t="e">
         <f t="shared" ref="E23:E32" si="1">$I$5*D23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="54">
         <v>2</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="54">
         <v>0</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="55">
         <v>28.867513459481287</v>
       </c>
-      <c r="I23" s="27" t="e">
+      <c r="I23" s="55" t="e">
         <f t="shared" ref="I23:I32" si="2">K23/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="55">
         <v>12.5470053837925</v>
       </c>
-      <c r="K23" s="27" t="e">
+      <c r="K23" s="55" t="e">
         <f t="shared" ref="K23:K32" si="3">SQRT(3)*B23*E23*(COS(G23*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="55">
         <v>35.641016151377499</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31" t="e">
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="73" t="e">
         <f t="shared" ref="Q23:Q32" si="4">(M23-(($M$20*K23)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="80">
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="24">
         <f>$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="V23" s="80"/>
+      <c r="V23" s="24"/>
     </row>
     <row r="24" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>1</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="17">
         <v>0.4</v>
       </c>
-      <c r="E24" s="24" t="e">
+      <c r="E24" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="54">
         <v>3</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="54">
         <v>0</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="55">
         <v>46.188021535170058</v>
       </c>
-      <c r="I24" s="27" t="e">
+      <c r="I24" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="55">
         <v>13.5470053837925</v>
       </c>
-      <c r="K24" s="27" t="e">
+      <c r="K24" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="55">
         <v>36.641016151377499</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31" t="e">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
     </row>
     <row r="25" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>1</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="17">
         <v>0.6</v>
       </c>
-      <c r="E25" s="24" t="e">
+      <c r="E25" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="54">
         <v>4</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="54">
         <v>0</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="55">
         <v>57.735026918962575</v>
       </c>
-      <c r="I25" s="27" t="e">
+      <c r="I25" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="55">
         <v>14.5470053837925</v>
       </c>
-      <c r="K25" s="27" t="e">
+      <c r="K25" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="55">
         <v>37.641016151377499</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31" t="e">
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>1</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="17">
         <v>0.8</v>
       </c>
-      <c r="E26" s="24" t="e">
+      <c r="E26" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="54">
         <v>5</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="54">
         <v>0</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="55">
         <v>69.282032302755084</v>
       </c>
-      <c r="I26" s="27" t="e">
+      <c r="I26" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="55">
         <v>15.5470053837925</v>
       </c>
-      <c r="K26" s="27" t="e">
+      <c r="K26" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="55">
         <v>38.641016151377499</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31" t="e">
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
     </row>
     <row r="27" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>1</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="24" t="e">
+      <c r="E27" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="54">
         <v>6</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="54">
         <v>0</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="55">
         <v>0.57735026918962573</v>
       </c>
-      <c r="I27" s="27" t="e">
+      <c r="I27" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="55">
         <v>16.547005383792499</v>
       </c>
-      <c r="K27" s="27" t="e">
+      <c r="K27" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="55">
         <v>39.641016151377499</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31" t="e">
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>1</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="17">
         <v>0.2</v>
       </c>
-      <c r="E28" s="24" t="e">
+      <c r="E28" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="54">
         <v>8</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="54">
         <v>60</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="55">
         <v>28.867513459481287</v>
       </c>
-      <c r="I28" s="27" t="e">
+      <c r="I28" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="55">
         <v>18.547005383792499</v>
       </c>
-      <c r="K28" s="27" t="e">
+      <c r="K28" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="55">
         <v>41.641016151377499</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31" t="e">
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="80">
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="24">
         <v>1</v>
       </c>
-      <c r="V28" s="80"/>
+      <c r="V28" s="24"/>
     </row>
     <row r="29" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="17">
         <v>0.4</v>
       </c>
-      <c r="E29" s="24" t="e">
+      <c r="E29" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="54">
         <v>9</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="54">
         <v>60</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="55">
         <v>69.282032302755084</v>
       </c>
-      <c r="I29" s="27" t="e">
+      <c r="I29" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="55">
         <v>19.547005383792499</v>
       </c>
-      <c r="K29" s="27" t="e">
+      <c r="K29" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="55">
         <v>42.641016151377499</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31" t="e">
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
     </row>
     <row r="30" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>1</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="17">
         <v>0.6</v>
       </c>
-      <c r="E30" s="24" t="e">
+      <c r="E30" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="54">
         <v>10</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="77">
         <v>60</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I30" s="27" t="e">
+      <c r="I30" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="55">
         <v>20.547005383792499</v>
       </c>
-      <c r="K30" s="27" t="e">
+      <c r="K30" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="55">
         <v>43.641016151377499</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31" t="e">
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
     </row>
     <row r="31" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>1</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="17">
         <v>0.8</v>
       </c>
-      <c r="E31" s="24" t="e">
+      <c r="E31" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="54">
         <v>11</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="77">
         <v>60</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I31" s="27" t="e">
+      <c r="I31" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="55">
         <v>21.547005383792499</v>
       </c>
-      <c r="K31" s="27" t="e">
+      <c r="K31" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="55">
         <v>44.641016151377499</v>
       </c>
-      <c r="M31" s="28" t="s">
+      <c r="M31" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="31" t="e">
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
     </row>
     <row r="32" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>1</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="17">
         <v>1</v>
       </c>
-      <c r="E32" s="24" t="e">
+      <c r="E32" s="54" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="54">
         <v>12</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="77">
         <v>60</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I32" s="27" t="e">
+      <c r="I32" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="55">
         <v>22.547005383792499</v>
       </c>
-      <c r="K32" s="27" t="e">
+      <c r="K32" s="55" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="55">
         <v>45.641016151377499</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M32" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="31" t="e">
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
     </row>
     <row r="33" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>1</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="54">
         <f>$M$5*A33</f>
         <v>100</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="17">
         <v>0.2</v>
       </c>
-      <c r="E33" s="24" t="e">
+      <c r="E33" s="54" t="e">
         <f>$I$5*D33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="54">
         <v>14</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="77">
         <v>300</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I33" s="27" t="e">
+      <c r="I33" s="55" t="e">
         <f>K33/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="55">
         <v>24.5470053837923</v>
       </c>
-      <c r="K33" s="27" t="e">
+      <c r="K33" s="55" t="e">
         <f>SQRT(3)*B33*E33*(COS(G33*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="55">
         <v>47.641016151376903</v>
       </c>
-      <c r="M33" s="28" t="s">
+      <c r="M33" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="31" t="e">
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="73" t="e">
         <f>(M33-(($M$20*K33)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="80">
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="24">
         <v>1</v>
       </c>
-      <c r="V33" s="80"/>
+      <c r="V33" s="24"/>
     </row>
     <row r="34" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>1</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="54">
         <f t="shared" ref="B34:B37" si="5">$M$5*A34</f>
         <v>100</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="17">
         <v>0.4</v>
       </c>
-      <c r="E34" s="24" t="e">
+      <c r="E34" s="54" t="e">
         <f t="shared" ref="E34:E37" si="6">$I$5*D34</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="54">
         <v>15</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="77">
         <v>300</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I34" s="27" t="e">
+      <c r="I34" s="55" t="e">
         <f t="shared" ref="I34:I37" si="7">K34/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="55">
         <v>25.5470053837923</v>
       </c>
-      <c r="K34" s="27" t="e">
+      <c r="K34" s="55" t="e">
         <f t="shared" ref="K34:K37" si="8">SQRT(3)*B34*E34*(COS(G34*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L34" s="55">
         <v>48.641016151376903</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31" t="e">
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="73" t="e">
         <f t="shared" ref="Q34:Q37" si="9">(M34-(($M$20*K34)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
     </row>
     <row r="35" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>1</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="17">
         <v>0.6</v>
       </c>
-      <c r="E35" s="24" t="e">
+      <c r="E35" s="54" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="54">
         <v>16</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="77">
         <v>300</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I35" s="27" t="e">
+      <c r="I35" s="55" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J35" s="55">
         <v>26.5470053837923</v>
       </c>
-      <c r="K35" s="27" t="e">
+      <c r="K35" s="55" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="55">
         <v>49.641016151376903</v>
       </c>
-      <c r="M35" s="28" t="s">
+      <c r="M35" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="31" t="e">
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="73" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
     </row>
     <row r="36" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>1</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="17">
         <v>0.8</v>
       </c>
-      <c r="E36" s="24" t="e">
+      <c r="E36" s="54" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="54">
         <v>17</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="77">
         <v>300</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I36" s="27" t="e">
+      <c r="I36" s="55" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="55">
         <v>27.5470053837923</v>
       </c>
-      <c r="K36" s="27" t="e">
+      <c r="K36" s="55" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="55">
         <v>50.641016151376803</v>
       </c>
-      <c r="M36" s="28" t="s">
+      <c r="M36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="31" t="e">
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="73" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="80"/>
-      <c r="V36" s="80"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
     </row>
     <row r="37" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>1</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="17">
         <v>1</v>
       </c>
-      <c r="E37" s="24" t="e">
+      <c r="E37" s="54" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="54">
         <v>18</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="77">
         <v>300</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="78">
         <v>28.867513459481291</v>
       </c>
-      <c r="I37" s="27" t="e">
+      <c r="I37" s="55" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="55">
         <v>28.5470053837923</v>
       </c>
-      <c r="K37" s="27" t="e">
+      <c r="K37" s="55" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="55">
         <v>51.641016151376803</v>
       </c>
-      <c r="M37" s="28" t="s">
+      <c r="M37" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="31" t="e">
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="73" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
     </row>
     <row r="38" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2461,38 +2461,38 @@
     <row r="61" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35" t="s">
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="36"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="76"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="34" t="s">
+      <c r="Q63" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35" t="s">
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="U63" s="35"/>
-      <c r="V63" s="36"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="76"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2566,24 +2566,143 @@
     <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="U33:V37"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="M21:P22"/>
+    <mergeCell ref="Q21:T22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="U23:V27"/>
+    <mergeCell ref="U28:V32"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="N7:U7"/>
@@ -2608,149 +2727,30 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="U33:V37"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="U23:V27"/>
-    <mergeCell ref="U28:V32"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="M21:P22"/>
-    <mergeCell ref="Q21:T22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
